--- a/version6_original/version6/Tool/01_data/cases/TestDyn_4CIGs/OP_7.xlsx
+++ b/version6_original/version6/Tool/01_data/cases/TestDyn_4CIGs/OP_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\miniconda3\envs\gridcal_original\hp2c-dt\version6_original\version6\Tool\01_data\cases\TestDyn_4CIGs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5978F188-1CA3-429E-89A2-DA48911D73EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418FD640-A9C3-46FB-BD94-85D68F86C28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="612" yWindow="1008" windowWidth="17280" windowHeight="8880" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -23,24 +23,24 @@
     <sheet name="shunt" sheetId="8" r:id="rId8"/>
     <sheet name="SG" sheetId="9" r:id="rId9"/>
     <sheet name="VSC" sheetId="10" r:id="rId10"/>
-    <sheet name="IPC" sheetId="12" r:id="rId11"/>
-    <sheet name="b2b" sheetId="13" r:id="rId12"/>
-    <sheet name="user" sheetId="14" r:id="rId13"/>
-    <sheet name="gen" sheetId="15" r:id="rId14"/>
-    <sheet name="case" sheetId="16" r:id="rId15"/>
-    <sheet name="buses" sheetId="17" r:id="rId16"/>
-    <sheet name="MMC_Pac_GFll" sheetId="18" r:id="rId17"/>
-    <sheet name="MMC_Vdc_GFll" sheetId="19" r:id="rId18"/>
-    <sheet name="STATCOM" sheetId="20" r:id="rId19"/>
-    <sheet name="PF" sheetId="21" r:id="rId20"/>
-    <sheet name="sim" sheetId="22" r:id="rId21"/>
+    <sheet name="MMC" sheetId="11" r:id="rId11"/>
+    <sheet name="IPC" sheetId="12" r:id="rId12"/>
+    <sheet name="b2b" sheetId="13" r:id="rId13"/>
+    <sheet name="user" sheetId="14" r:id="rId14"/>
+    <sheet name="gen" sheetId="15" r:id="rId15"/>
+    <sheet name="case" sheetId="16" r:id="rId16"/>
+    <sheet name="buses" sheetId="17" r:id="rId17"/>
+    <sheet name="MMC_Pac_GFll" sheetId="18" r:id="rId18"/>
+    <sheet name="MMC_Vdc_GFll" sheetId="19" r:id="rId19"/>
+    <sheet name="STATCOM" sheetId="20" r:id="rId20"/>
+    <sheet name="PF" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="82">
   <si>
     <t>Area</t>
   </si>
@@ -60,15 +60,15 @@
     <t>ref_element</t>
   </si>
   <si>
+    <t>SyncArea</t>
+  </si>
+  <si>
     <t>TH</t>
   </si>
   <si>
     <t>number</t>
   </si>
   <si>
-    <t>SyncArea</t>
-  </si>
-  <si>
     <t>bus_from</t>
   </si>
   <si>
@@ -286,40 +286,13 @@
   </si>
   <si>
     <t>Vm</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>solver</t>
-  </si>
-  <si>
-    <t>Tsample_s</t>
-  </si>
-  <si>
-    <t>Ts_s</t>
-  </si>
-  <si>
-    <t>Tsim_s</t>
-  </si>
-  <si>
-    <t>tstep_s</t>
-  </si>
-  <si>
-    <t>step_factor</t>
-  </si>
-  <si>
-    <t>Discrete</t>
-  </si>
-  <si>
-    <t>ode1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,34 +305,16 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -382,43 +337,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,15 +648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,8 +673,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -767,7 +694,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -780,14 +710,14 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -802,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -825,8 +755,12 @@
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -839,7 +773,7 @@
         <v>138</v>
       </c>
       <c r="D2">
-        <v>116.03</v>
+        <v>122.1368421052632</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -880,7 +814,7 @@
         <v>138</v>
       </c>
       <c r="D3">
-        <v>173.97</v>
+        <v>183.12631578947369</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -921,7 +855,7 @@
         <v>138</v>
       </c>
       <c r="D4">
-        <v>132</v>
+        <v>138.9473684210526</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -962,7 +896,7 @@
         <v>138</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>47.368421052631582</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -998,6 +932,60 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -1007,7 +995,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -1048,7 +1036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S1"/>
   <sheetViews>
@@ -1120,7 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
@@ -1130,7 +1118,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -1145,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -1177,19 +1165,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -1227,8 +1215,11 @@
       <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1239,7 +1230,7 @@
         <v>56</v>
       </c>
       <c r="D2">
-        <v>116.03</v>
+        <v>122.1368421052632</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1262,8 +1253,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1274,7 +1268,7 @@
         <v>56</v>
       </c>
       <c r="D3">
-        <v>173.97</v>
+        <v>183.12631578947369</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1297,10 +1291,13 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1309,7 +1306,7 @@
         <v>57</v>
       </c>
       <c r="D4">
-        <v>132</v>
+        <v>138.9473684210526</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1332,10 +1329,13 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1344,7 +1344,7 @@
         <v>57</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>47.368421052631582</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1367,8 +1367,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>333.40735625584688</v>
@@ -1401,6 +1404,9 @@
       </c>
       <c r="K6">
         <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1408,7 +1414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -1441,17 +1447,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,10 +1468,13 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1.05</v>
@@ -1478,10 +1485,13 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -1490,6 +1500,9 @@
         <v>-9.3407370778376251</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
@@ -1498,7 +1511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
@@ -1508,7 +1521,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -1552,7 +1565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
@@ -1562,7 +1575,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -1578,60 +1591,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -1673,12 +1632,64 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1686,11 +1697,11 @@
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>81</v>
@@ -1735,67 +1746,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6390A0A8-D428-499D-ADBA-BA741FC08D18}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1E-4</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1803,21 +1753,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1882,7 +1830,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1933,13 +1881,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1975,21 +1923,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
@@ -2066,15 +2012,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -2089,30 +2033,30 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2124,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>333.40735625584688</v>
@@ -2136,25 +2080,25 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>1.181807613043357</v>
       </c>
       <c r="H2">
-        <v>1.181807613043357</v>
+        <v>0.70330862717390186</v>
       </c>
       <c r="I2">
-        <v>0.70330862717390186</v>
+        <v>1.05</v>
       </c>
       <c r="J2">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="N2">
         <v>0.1</v>
@@ -2175,7 +2119,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -2190,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -2214,7 +2158,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -2229,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
